--- a/database/industries/lastic/pasa/income/yearly/dollar.xlsx
+++ b/database/industries/lastic/pasa/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pasa\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC92B8-FCF1-4EDD-8F54-377277862FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA24F0-156A-483F-9AE3-D4326185C5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پاسا-ایران‌یاساتایرورابر</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-03-21 (18)</t>
-  </si>
-  <si>
-    <t>1394-03-04 (23)</t>
-  </si>
-  <si>
-    <t>1395-03-24 (24)</t>
-  </si>
-  <si>
-    <t>1396-04-13 (13)</t>
-  </si>
-  <si>
-    <t>1397-03-31 (12)</t>
-  </si>
-  <si>
     <t>1398-04-05 (9)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-03-25 (8)</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-28 (6)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +607,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +618,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +638,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +649,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +660,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +669,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +690,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,519 +720,304 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>48628</v>
+        <v>37190</v>
       </c>
       <c r="E11" s="13">
-        <v>61182</v>
+        <v>23155</v>
       </c>
       <c r="F11" s="13">
-        <v>58180</v>
+        <v>29553</v>
       </c>
       <c r="G11" s="13">
-        <v>55527</v>
+        <v>31537</v>
       </c>
       <c r="H11" s="13">
-        <v>34289</v>
-      </c>
-      <c r="I11" s="13">
-        <v>37190</v>
-      </c>
-      <c r="J11" s="13">
-        <v>23155</v>
-      </c>
-      <c r="K11" s="13">
-        <v>29553</v>
-      </c>
-      <c r="L11" s="13">
-        <v>31537</v>
-      </c>
-      <c r="M11" s="13">
         <v>39919</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-31605</v>
+        <v>-31951</v>
       </c>
       <c r="E12" s="11">
-        <v>-46690</v>
+        <v>-17910</v>
       </c>
       <c r="F12" s="11">
-        <v>-41666</v>
+        <v>-22017</v>
       </c>
       <c r="G12" s="11">
-        <v>-41636</v>
+        <v>-20622</v>
       </c>
       <c r="H12" s="11">
-        <v>-26946</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-31951</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-17910</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-22017</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-20622</v>
-      </c>
-      <c r="M12" s="11">
         <v>-32736</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>17023</v>
+        <v>5239</v>
       </c>
       <c r="E13" s="15">
-        <v>14492</v>
+        <v>5246</v>
       </c>
       <c r="F13" s="15">
-        <v>16514</v>
+        <v>7536</v>
       </c>
       <c r="G13" s="15">
-        <v>13891</v>
+        <v>10915</v>
       </c>
       <c r="H13" s="15">
-        <v>7343</v>
-      </c>
-      <c r="I13" s="15">
-        <v>5239</v>
-      </c>
-      <c r="J13" s="15">
-        <v>5246</v>
-      </c>
-      <c r="K13" s="15">
-        <v>7536</v>
-      </c>
-      <c r="L13" s="15">
-        <v>10915</v>
-      </c>
-      <c r="M13" s="15">
         <v>7183</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-2326</v>
+        <v>-2179</v>
       </c>
       <c r="E14" s="11">
-        <v>-1875</v>
+        <v>-1063</v>
       </c>
       <c r="F14" s="11">
-        <v>-2828</v>
+        <v>-1226</v>
       </c>
       <c r="G14" s="11">
-        <v>-2312</v>
+        <v>-885</v>
       </c>
       <c r="H14" s="11">
-        <v>-2259</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-2179</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-1063</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-1226</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-885</v>
-      </c>
-      <c r="M14" s="11">
         <v>-1232</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>36</v>
+        <v>-193</v>
       </c>
       <c r="E16" s="11">
-        <v>1</v>
+        <v>-529</v>
       </c>
       <c r="F16" s="11">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="G16" s="11">
-        <v>-2648</v>
+        <v>1246</v>
       </c>
       <c r="H16" s="11">
-        <v>-1387</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-193</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-529</v>
-      </c>
-      <c r="K16" s="11">
-        <v>24</v>
-      </c>
-      <c r="L16" s="11">
-        <v>1246</v>
-      </c>
-      <c r="M16" s="11">
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>14732</v>
+        <v>2866</v>
       </c>
       <c r="E17" s="15">
-        <v>12618</v>
+        <v>3654</v>
       </c>
       <c r="F17" s="15">
-        <v>13919</v>
+        <v>6333</v>
       </c>
       <c r="G17" s="15">
-        <v>8930</v>
+        <v>11276</v>
       </c>
       <c r="H17" s="15">
-        <v>3697</v>
-      </c>
-      <c r="I17" s="15">
-        <v>2866</v>
-      </c>
-      <c r="J17" s="15">
-        <v>3654</v>
-      </c>
-      <c r="K17" s="15">
-        <v>6333</v>
-      </c>
-      <c r="L17" s="15">
-        <v>11276</v>
-      </c>
-      <c r="M17" s="15">
         <v>6533</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-3155</v>
+        <v>-3477</v>
       </c>
       <c r="E18" s="11">
-        <v>-2741</v>
+        <v>-1301</v>
       </c>
       <c r="F18" s="11">
-        <v>-6374</v>
+        <v>-976</v>
       </c>
       <c r="G18" s="11">
-        <v>-8611</v>
+        <v>-607</v>
       </c>
       <c r="H18" s="11">
-        <v>-4597</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-3477</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-1301</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-976</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-607</v>
-      </c>
-      <c r="M18" s="11">
         <v>-1047</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-3467</v>
+        <v>670</v>
       </c>
       <c r="E19" s="13">
-        <v>637</v>
+        <v>182</v>
       </c>
       <c r="F19" s="13">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="G19" s="13">
-        <v>339</v>
+        <v>145</v>
       </c>
       <c r="H19" s="13">
-        <v>107</v>
-      </c>
-      <c r="I19" s="13">
-        <v>670</v>
-      </c>
-      <c r="J19" s="13">
-        <v>182</v>
-      </c>
-      <c r="K19" s="13">
-        <v>294</v>
-      </c>
-      <c r="L19" s="13">
-        <v>145</v>
-      </c>
-      <c r="M19" s="13">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>8111</v>
+        <v>60</v>
       </c>
       <c r="E20" s="17">
-        <v>10514</v>
+        <v>2535</v>
       </c>
       <c r="F20" s="17">
-        <v>7749</v>
+        <v>5651</v>
       </c>
       <c r="G20" s="17">
-        <v>659</v>
+        <v>10814</v>
       </c>
       <c r="H20" s="17">
-        <v>-794</v>
-      </c>
-      <c r="I20" s="17">
-        <v>60</v>
-      </c>
-      <c r="J20" s="17">
-        <v>2535</v>
-      </c>
-      <c r="K20" s="17">
-        <v>5651</v>
-      </c>
-      <c r="L20" s="17">
-        <v>10814</v>
-      </c>
-      <c r="M20" s="17">
         <v>5728</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1494</v>
+        <v>-167</v>
       </c>
       <c r="E21" s="13">
-        <v>-1878</v>
+        <v>-363</v>
       </c>
       <c r="F21" s="13">
-        <v>-2280</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-167</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-363</v>
-      </c>
-      <c r="K21" s="13">
         <v>-876</v>
       </c>
-      <c r="L21" s="13">
+      <c r="G21" s="13">
         <v>-1272</v>
       </c>
-      <c r="M21" s="13">
+      <c r="H21" s="13">
         <v>-1041</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>6616</v>
+        <v>-108</v>
       </c>
       <c r="E22" s="17">
-        <v>8636</v>
+        <v>2173</v>
       </c>
       <c r="F22" s="17">
-        <v>5469</v>
+        <v>4775</v>
       </c>
       <c r="G22" s="17">
-        <v>659</v>
+        <v>9542</v>
       </c>
       <c r="H22" s="17">
-        <v>-794</v>
-      </c>
-      <c r="I22" s="17">
-        <v>-108</v>
-      </c>
-      <c r="J22" s="17">
-        <v>2173</v>
-      </c>
-      <c r="K22" s="17">
-        <v>4775</v>
-      </c>
-      <c r="L22" s="17">
-        <v>9542</v>
-      </c>
-      <c r="M22" s="17">
         <v>4687</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>6616</v>
+        <v>-108</v>
       </c>
       <c r="E24" s="17">
-        <v>8636</v>
+        <v>2173</v>
       </c>
       <c r="F24" s="17">
-        <v>5469</v>
+        <v>4775</v>
       </c>
       <c r="G24" s="17">
-        <v>659</v>
+        <v>9542</v>
       </c>
       <c r="H24" s="17">
-        <v>-794</v>
-      </c>
-      <c r="I24" s="17">
-        <v>-108</v>
-      </c>
-      <c r="J24" s="17">
-        <v>2173</v>
-      </c>
-      <c r="K24" s="17">
-        <v>4775</v>
-      </c>
-      <c r="L24" s="17">
-        <v>9542</v>
-      </c>
-      <c r="M24" s="17">
         <v>4687</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1345,61 +1035,31 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2281</v>
+        <v>14778</v>
       </c>
       <c r="E26" s="11">
-        <v>2522</v>
+        <v>5931</v>
       </c>
       <c r="F26" s="11">
-        <v>12243</v>
+        <v>7016</v>
       </c>
       <c r="G26" s="11">
-        <v>17868</v>
+        <v>3980</v>
       </c>
       <c r="H26" s="11">
-        <v>16528</v>
-      </c>
-      <c r="I26" s="11">
-        <v>14778</v>
-      </c>
-      <c r="J26" s="11">
-        <v>5931</v>
-      </c>
-      <c r="K26" s="11">
-        <v>7016</v>
-      </c>
-      <c r="L26" s="11">
-        <v>3980</v>
-      </c>
-      <c r="M26" s="11">
         <v>3411</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1417,23 +1077,8 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1086,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pasa/income/yearly/dollar.xlsx
+++ b/database/industries/lastic/pasa/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA24F0-156A-483F-9AE3-D4326185C5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677417FD-2A47-41B3-9236-A773DB6809B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-04-05 (9)</t>
-  </si>
-  <si>
     <t>1399-06-20 (9)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-03-25 (8)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-28 (7)</t>
+  </si>
+  <si>
+    <t>1402-02-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,91 +721,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>37190</v>
+        <v>23155</v>
       </c>
       <c r="E11" s="13">
-        <v>23155</v>
+        <v>29553</v>
       </c>
       <c r="F11" s="13">
-        <v>29553</v>
+        <v>31537</v>
       </c>
       <c r="G11" s="13">
-        <v>31537</v>
+        <v>39919</v>
       </c>
       <c r="H11" s="13">
-        <v>39919</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>49861</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-31951</v>
+        <v>-17910</v>
       </c>
       <c r="E12" s="11">
-        <v>-17910</v>
+        <v>-22017</v>
       </c>
       <c r="F12" s="11">
-        <v>-22017</v>
+        <v>-20622</v>
       </c>
       <c r="G12" s="11">
-        <v>-20622</v>
+        <v>-32646</v>
       </c>
       <c r="H12" s="11">
-        <v>-32736</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-39648</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>5239</v>
+        <v>5246</v>
       </c>
       <c r="E13" s="15">
-        <v>5246</v>
+        <v>7536</v>
       </c>
       <c r="F13" s="15">
-        <v>7536</v>
+        <v>10915</v>
       </c>
       <c r="G13" s="15">
-        <v>10915</v>
+        <v>7274</v>
       </c>
       <c r="H13" s="15">
-        <v>7183</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-2179</v>
+        <v>-1063</v>
       </c>
       <c r="E14" s="11">
-        <v>-1063</v>
+        <v>-1226</v>
       </c>
       <c r="F14" s="11">
-        <v>-1226</v>
+        <v>-885</v>
       </c>
       <c r="G14" s="11">
-        <v>-885</v>
+        <v>-1232</v>
       </c>
       <c r="H14" s="11">
-        <v>-1232</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,154 +826,154 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-193</v>
+        <v>-529</v>
       </c>
       <c r="E16" s="11">
-        <v>-529</v>
+        <v>24</v>
       </c>
       <c r="F16" s="11">
-        <v>24</v>
+        <v>1246</v>
       </c>
       <c r="G16" s="11">
-        <v>1246</v>
+        <v>491</v>
       </c>
       <c r="H16" s="11">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>2866</v>
+        <v>3654</v>
       </c>
       <c r="E17" s="15">
-        <v>3654</v>
+        <v>6333</v>
       </c>
       <c r="F17" s="15">
-        <v>6333</v>
+        <v>11276</v>
       </c>
       <c r="G17" s="15">
-        <v>11276</v>
+        <v>6533</v>
       </c>
       <c r="H17" s="15">
-        <v>6533</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-3477</v>
+        <v>-1301</v>
       </c>
       <c r="E18" s="11">
-        <v>-1301</v>
+        <v>-976</v>
       </c>
       <c r="F18" s="11">
-        <v>-976</v>
+        <v>-607</v>
       </c>
       <c r="G18" s="11">
-        <v>-607</v>
+        <v>-1047</v>
       </c>
       <c r="H18" s="11">
-        <v>-1047</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1311</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>670</v>
+        <v>182</v>
       </c>
       <c r="E19" s="13">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="F19" s="13">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="G19" s="13">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="H19" s="13">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>60</v>
+        <v>2535</v>
       </c>
       <c r="E20" s="17">
-        <v>2535</v>
+        <v>5651</v>
       </c>
       <c r="F20" s="17">
-        <v>5651</v>
+        <v>10814</v>
       </c>
       <c r="G20" s="17">
-        <v>10814</v>
+        <v>5728</v>
       </c>
       <c r="H20" s="17">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-167</v>
+        <v>-363</v>
       </c>
       <c r="E21" s="13">
-        <v>-363</v>
+        <v>-876</v>
       </c>
       <c r="F21" s="13">
-        <v>-876</v>
+        <v>-1272</v>
       </c>
       <c r="G21" s="13">
-        <v>-1272</v>
+        <v>-1041</v>
       </c>
       <c r="H21" s="13">
-        <v>-1041</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-347</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>-108</v>
+        <v>2173</v>
       </c>
       <c r="E22" s="17">
-        <v>2173</v>
+        <v>4775</v>
       </c>
       <c r="F22" s="17">
-        <v>4775</v>
+        <v>9542</v>
       </c>
       <c r="G22" s="17">
-        <v>9542</v>
+        <v>4687</v>
       </c>
       <c r="H22" s="17">
-        <v>4687</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7322</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,28 +994,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>-108</v>
+        <v>2173</v>
       </c>
       <c r="E24" s="17">
-        <v>2173</v>
+        <v>4775</v>
       </c>
       <c r="F24" s="17">
-        <v>4775</v>
+        <v>9542</v>
       </c>
       <c r="G24" s="17">
-        <v>9542</v>
+        <v>4687</v>
       </c>
       <c r="H24" s="17">
-        <v>4687</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7322</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,28 +1036,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>14778</v>
+        <v>5931</v>
       </c>
       <c r="E26" s="11">
-        <v>5931</v>
+        <v>7016</v>
       </c>
       <c r="F26" s="11">
-        <v>7016</v>
+        <v>3980</v>
       </c>
       <c r="G26" s="11">
-        <v>3980</v>
+        <v>3411</v>
       </c>
       <c r="H26" s="11">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
